--- a/misc/FlexibiltyFunctions/results/tables_edit.xlsx
+++ b/misc/FlexibiltyFunctions/results/tables_edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6855" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitances kWhperK" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,12 @@
     <sheet name="Max downward power kW" sheetId="9" r:id="rId9"/>
     <sheet name="Cost difference euro" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="30">
   <si>
     <t>Network</t>
   </si>
@@ -104,6 +104,21 @@
   <si>
     <t>Parallel district</t>
   </si>
+  <si>
+    <t>Capacitance</t>
+  </si>
+  <si>
+    <t>Total UA-value</t>
+  </si>
+  <si>
+    <t>Oud</t>
+  </si>
+  <si>
+    <t>Nieuw</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
 </sst>
 </file>
 
@@ -111,9 +126,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
-    <numFmt numFmtId="171" formatCode="h:mm;@"/>
+    <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,6 +167,14 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -413,10 +436,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -448,24 +472,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -488,11 +494,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="TableStyleLight1" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -547,7 +587,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -822,62 +861,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Energy [kWh]</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -913,45 +896,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -960,6 +904,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1037,7 +1012,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1312,67 +1286,6 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Energy</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> [kWh]</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1408,45 +1321,6 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1455,6 +1329,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1507,7 +1412,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4118,95 +4022,203 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:G7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="29"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="E2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2">
+      <c r="B3" s="16">
         <v>0.4171048047185274</v>
       </c>
-      <c r="C2">
+      <c r="C3" s="16">
         <v>292.23742722702889</v>
       </c>
-      <c r="D2">
+      <c r="D3" s="17">
         <v>292.65453203174741</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E3" s="38">
+        <v>36.79</v>
+      </c>
+      <c r="F3" s="16">
+        <f>L5*10</f>
+        <v>1616.9</v>
+      </c>
+      <c r="G3" s="17">
+        <f>E3+F3</f>
+        <v>1653.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B3">
+      <c r="B4" s="16">
         <v>0.4171048047185274</v>
       </c>
-      <c r="C3">
+      <c r="C4" s="16">
         <v>390.57361416907003</v>
       </c>
-      <c r="D3">
+      <c r="D4" s="17">
         <v>390.99071897378849</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="E4" s="38">
+        <v>36.791699999999999</v>
+      </c>
+      <c r="F4" s="16">
+        <f>L5*5+L4*5</f>
+        <v>2514.3500000000004</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" ref="G4:G7" si="0">E4+F4</f>
+        <v>2551.1417000000006</v>
+      </c>
+      <c r="K4" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4">
+        <v>341.18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
+      <c r="B5" s="16">
         <v>0.49249232761650552</v>
       </c>
-      <c r="C4">
+      <c r="C5" s="16">
         <v>488.90980111111111</v>
       </c>
-      <c r="D4">
+      <c r="D5" s="17">
         <v>489.40229343872761</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="E5" s="38">
+        <v>37.541800000000002</v>
+      </c>
+      <c r="F5" s="16">
+        <f>L4*10</f>
+        <v>3411.8</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="0"/>
+        <v>3449.3418000000001</v>
+      </c>
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5">
+        <v>161.69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B6" s="16">
         <v>0.75304372074470916</v>
       </c>
-      <c r="C5">
+      <c r="C6" s="16">
         <v>1020.082578953735</v>
       </c>
-      <c r="D5">
+      <c r="D6" s="17">
         <v>1020.83562267448</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="E6" s="38">
+        <v>23.035900000000002</v>
+      </c>
+      <c r="F6" s="16">
+        <f>10*(L4+L5+L6)</f>
+        <v>7706.8000000000011</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>7729.8359000000009</v>
+      </c>
+      <c r="K6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6">
+        <v>267.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
+      <c r="B7" s="19">
         <v>0.59556400624078487</v>
       </c>
-      <c r="C6">
+      <c r="C7" s="19">
         <v>1020.082578953735</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="20">
         <v>1020.678142959976</v>
       </c>
+      <c r="E7" s="39">
+        <v>23.029800000000002</v>
+      </c>
+      <c r="F7" s="19">
+        <f>10*(L4+L5+L6)</f>
+        <v>7706.8000000000011</v>
+      </c>
+      <c r="G7" s="20">
+        <f t="shared" si="0"/>
+        <v>7729.8298000000013</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4215,7 +4227,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:H20"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4339,102 +4351,102 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D15" s="27"/>
-      <c r="E15" s="28" t="s">
+      <c r="D15" s="21"/>
+      <c r="E15" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="28" t="s">
+      <c r="F15" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="G15" s="28" t="s">
+      <c r="G15" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="H15" s="28" t="s">
+      <c r="H15" s="22" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="24">
         <v>385.8</v>
       </c>
-      <c r="F16" s="30">
+      <c r="F16" s="24">
         <v>387.23</v>
       </c>
-      <c r="G16" s="30">
+      <c r="G16" s="24">
         <v>0.04</v>
       </c>
-      <c r="H16" s="30">
+      <c r="H16" s="24">
         <v>387.62</v>
       </c>
     </row>
     <row r="17" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="29" t="s">
+      <c r="D17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E17" s="30">
+      <c r="E17" s="24">
         <v>380.79</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="24">
         <v>380.52</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="24">
         <v>0.2</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="24">
         <v>381.35</v>
       </c>
     </row>
     <row r="18" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="29" t="s">
+      <c r="D18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="24">
         <v>372.02</v>
       </c>
-      <c r="F18" s="30">
+      <c r="F18" s="24">
         <v>372.72</v>
       </c>
-      <c r="G18" s="30">
+      <c r="G18" s="24">
         <v>0.42</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="24">
         <v>373.9</v>
       </c>
     </row>
     <row r="19" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="29" t="s">
+      <c r="D19" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E19" s="30">
+      <c r="E19" s="24">
         <v>1669.76</v>
       </c>
-      <c r="F19" s="30">
+      <c r="F19" s="24">
         <v>1760.19</v>
       </c>
-      <c r="G19" s="30">
+      <c r="G19" s="24">
         <v>2.33</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="24">
         <v>1762.61</v>
       </c>
     </row>
     <row r="20" spans="4:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="29" t="s">
+      <c r="D20" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="30">
+      <c r="E20" s="24">
         <v>1669.76</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="24">
         <v>1741.19</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="24">
         <v>1.04</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="24">
         <v>1742.07</v>
       </c>
     </row>
@@ -4448,7 +4460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -4566,20 +4578,20 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="G8" s="15" t="s">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="G8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="37"/>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -4613,31 +4625,31 @@
       <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21">
+      <c r="B10" s="15">
         <v>773.23158964843196</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="16">
         <v>802.1539406226625</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="16">
         <v>0.69169744890833296</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="17">
         <v>806.59119025112079</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="H10" s="21">
+      <c r="H10" s="15">
         <v>579.51404266365546</v>
       </c>
-      <c r="I10" s="22">
+      <c r="I10" s="16">
         <v>594.69343964682707</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="16">
         <v>0.35140073683333439</v>
       </c>
-      <c r="K10" s="23">
+      <c r="K10" s="17">
         <v>596.96079810378353</v>
       </c>
     </row>
@@ -4645,31 +4657,31 @@
       <c r="A11" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B11" s="21">
+      <c r="B11" s="15">
         <v>814.07290764397248</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="16">
         <v>824.68686571642513</v>
       </c>
-      <c r="D11" s="22">
+      <c r="D11" s="16">
         <v>2.8539181361071662</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="17">
         <v>830.14706105893345</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="H11" s="21">
+      <c r="H11" s="15">
         <v>597.43059580313354</v>
       </c>
-      <c r="I11" s="22">
+      <c r="I11" s="16">
         <v>602.60452486864403</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="16">
         <v>1.5419710133094211</v>
       </c>
-      <c r="K11" s="23">
+      <c r="K11" s="17">
         <v>605.6584797060334</v>
       </c>
     </row>
@@ -4677,31 +4689,31 @@
       <c r="A12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="15">
         <v>840.8722818906374</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="16">
         <v>841.73231394333982</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="16">
         <v>3.370520660430584</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="17">
         <v>847.65449205156483</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H12" s="21">
+      <c r="H12" s="15">
         <v>606.44487004446637</v>
       </c>
-      <c r="I12" s="22">
+      <c r="I12" s="16">
         <v>607.22829635620531</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="16">
         <v>1.878959421050163</v>
       </c>
-      <c r="K12" s="23">
+      <c r="K12" s="17">
         <v>610.73535089348809</v>
       </c>
     </row>
@@ -4709,31 +4721,31 @@
       <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="21">
+      <c r="B13" s="15">
         <v>3125.5014936516009</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="16">
         <v>3241.4503717400412</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="16">
         <v>5.4635982710628248</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="17">
         <v>3247.918621996364</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H13" s="21">
+      <c r="H13" s="15">
         <v>2397.6301134252271</v>
       </c>
-      <c r="I13" s="22">
+      <c r="I13" s="16">
         <v>2500.820925594765</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="16">
         <v>3.895419806220104</v>
       </c>
-      <c r="K13" s="23">
+      <c r="K13" s="17">
         <v>2505.264690091255</v>
       </c>
     </row>
@@ -4741,31 +4753,31 @@
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="18">
         <v>3125.5014936516009</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="19">
         <v>3220.6213525852731</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="19">
         <v>2.963760202334127</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="20">
         <v>3224.5548434584171</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="18">
         <v>2397.6301134252271</v>
       </c>
-      <c r="I14" s="25">
+      <c r="I14" s="19">
         <v>2480.9070854485208</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="19">
         <v>2.0017586785793582</v>
       </c>
-      <c r="K14" s="26">
+      <c r="K14" s="20">
         <v>2483.3130658815871</v>
       </c>
     </row>
@@ -4789,28 +4801,28 @@
       <c r="B20" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="15">
         <v>773.23158964843196</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="15">
         <v>579.51404266365546</v>
       </c>
-      <c r="F20" s="22">
+      <c r="F20" s="16">
         <v>802.1539406226625</v>
       </c>
-      <c r="G20" s="22">
+      <c r="G20" s="16">
         <v>594.69343964682707</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="16">
         <v>0.69169744890833296</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="16">
         <v>0.35140073683333439</v>
       </c>
-      <c r="L20" s="23">
+      <c r="L20" s="17">
         <v>806.59119025112079</v>
       </c>
-      <c r="M20" s="23">
+      <c r="M20" s="17">
         <v>596.96079810378353</v>
       </c>
     </row>
@@ -4818,28 +4830,28 @@
       <c r="B21" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="21">
+      <c r="C21" s="15">
         <v>814.07290764397248</v>
       </c>
-      <c r="D21" s="21">
+      <c r="D21" s="15">
         <v>597.43059580313354</v>
       </c>
-      <c r="F21" s="22">
+      <c r="F21" s="16">
         <v>824.68686571642513</v>
       </c>
-      <c r="G21" s="22">
+      <c r="G21" s="16">
         <v>602.60452486864403</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="16">
         <v>2.8539181361071662</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="16">
         <v>1.5419710133094211</v>
       </c>
-      <c r="L21" s="23">
+      <c r="L21" s="17">
         <v>830.14706105893345</v>
       </c>
-      <c r="M21" s="23">
+      <c r="M21" s="17">
         <v>605.6584797060334</v>
       </c>
     </row>
@@ -4847,28 +4859,28 @@
       <c r="B22" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="21">
+      <c r="C22" s="15">
         <v>840.8722818906374</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="15">
         <v>606.44487004446637</v>
       </c>
-      <c r="F22" s="22">
+      <c r="F22" s="16">
         <v>841.73231394333982</v>
       </c>
-      <c r="G22" s="22">
+      <c r="G22" s="16">
         <v>607.22829635620531</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="16">
         <v>3.370520660430584</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="16">
         <v>1.878959421050163</v>
       </c>
-      <c r="L22" s="23">
+      <c r="L22" s="17">
         <v>847.65449205156483</v>
       </c>
-      <c r="M22" s="23">
+      <c r="M22" s="17">
         <v>610.73535089348809</v>
       </c>
     </row>
@@ -4876,28 +4888,28 @@
       <c r="B23" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="21">
+      <c r="C23" s="15">
         <v>3125.5014936516009</v>
       </c>
-      <c r="D23" s="21">
+      <c r="D23" s="15">
         <v>2397.6301134252271</v>
       </c>
-      <c r="F23" s="22">
+      <c r="F23" s="16">
         <v>3241.4503717400412</v>
       </c>
-      <c r="G23" s="22">
+      <c r="G23" s="16">
         <v>2500.820925594765</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="16">
         <v>5.4635982710628248</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="16">
         <v>3.895419806220104</v>
       </c>
-      <c r="L23" s="23">
+      <c r="L23" s="17">
         <v>3247.918621996364</v>
       </c>
-      <c r="M23" s="23">
+      <c r="M23" s="17">
         <v>2505.264690091255</v>
       </c>
     </row>
@@ -4905,28 +4917,28 @@
       <c r="B24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C24" s="18">
         <v>3125.5014936516009</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D24" s="18">
         <v>2397.6301134252271</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="19">
         <v>3220.6213525852731</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="19">
         <v>2480.9070854485208</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="19">
         <v>2.963760202334127</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="19">
         <v>2.0017586785793582</v>
       </c>
-      <c r="L24" s="26">
+      <c r="L24" s="20">
         <v>3224.5548434584171</v>
       </c>
-      <c r="M24" s="26">
+      <c r="M24" s="20">
         <v>2483.3130658815871</v>
       </c>
     </row>
@@ -5337,7 +5349,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5467,32 +5479,32 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
       <c r="I10" s="11"/>
@@ -5502,11 +5514,11 @@
       <c r="M10" s="11"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31"/>
-      <c r="E11" s="31"/>
-      <c r="F11" s="32"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="26"/>
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
       <c r="I11" s="11"/>

--- a/misc/FlexibiltyFunctions/results/tables_edit.xlsx
+++ b/misc/FlexibiltyFunctions/results/tables_edit.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6855"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19140" windowHeight="6855" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Capacitances kWhperK" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="32">
   <si>
     <t>Network</t>
   </si>
@@ -119,6 +119,12 @@
   <si>
     <t>Mixed</t>
   </si>
+  <si>
+    <t>Stored</t>
+  </si>
+  <si>
+    <t>Used</t>
+  </si>
 </sst>
 </file>
 
@@ -128,7 +134,7 @@
     <numFmt numFmtId="164" formatCode="[hh]:mm:ss"/>
     <numFmt numFmtId="165" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -175,6 +181,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -440,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -499,6 +511,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -529,6 +542,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -587,6 +609,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -649,7 +672,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Downward energy kWh'!$B$20:$B$24</c:f>
+              <c:f>'Downward energy kWh'!$B$21:$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -672,7 +695,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Downward energy kWh'!$F$20:$F$24</c:f>
+              <c:f>'Downward energy kWh'!$E$21:$E$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -726,7 +749,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Downward energy kWh'!$B$20:$B$24</c:f>
+              <c:f>'Downward energy kWh'!$B$21:$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -749,7 +772,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Downward energy kWh'!$G$20:$G$24</c:f>
+              <c:f>'Downward energy kWh'!$F$21:$F$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -906,6 +929,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1012,6 +1036,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1074,7 +1099,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Downward energy kWh'!$B$20:$B$24</c:f>
+              <c:f>'Downward energy kWh'!$B$21:$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1097,7 +1122,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Downward energy kWh'!$I$20:$I$24</c:f>
+              <c:f>'Downward energy kWh'!$G$21:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1151,7 +1176,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Downward energy kWh'!$B$20:$B$24</c:f>
+              <c:f>'Downward energy kWh'!$B$21:$B$25</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1174,7 +1199,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Downward energy kWh'!$J$20:$J$24</c:f>
+              <c:f>'Downward energy kWh'!$H$21:$H$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1331,6 +1356,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1412,6 +1438,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3643,13 +3670,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>704850</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3673,13 +3700,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>42</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4024,8 +4051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4037,19 +4064,19 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="29"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31" t="s">
+      <c r="C1" s="30"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4082,7 +4109,7 @@
       <c r="D3" s="17">
         <v>292.65453203174741</v>
       </c>
-      <c r="E3" s="38">
+      <c r="E3" s="39">
         <v>36.79</v>
       </c>
       <c r="F3" s="16">
@@ -4107,7 +4134,7 @@
       <c r="D4" s="17">
         <v>390.99071897378849</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="39">
         <v>36.791699999999999</v>
       </c>
       <c r="F4" s="16">
@@ -4138,7 +4165,7 @@
       <c r="D5" s="17">
         <v>489.40229343872761</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="39">
         <v>37.541800000000002</v>
       </c>
       <c r="F5" s="16">
@@ -4169,7 +4196,7 @@
       <c r="D6" s="17">
         <v>1020.83562267448</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="39">
         <v>23.035900000000002</v>
       </c>
       <c r="F6" s="16">
@@ -4200,7 +4227,7 @@
       <c r="D7" s="20">
         <v>1020.678142959976</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="40">
         <v>23.029800000000002</v>
       </c>
       <c r="F7" s="19">
@@ -4458,10 +4485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19:J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4578,20 +4605,20 @@
     </row>
     <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="34"/>
-      <c r="G8" s="35" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="G8" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -4781,171 +4808,205 @@
         <v>2483.3130658815871</v>
       </c>
     </row>
-    <row r="18" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:13" ht="45" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="14" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="28"/>
+      <c r="C19" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="I19" s="4" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="H19" s="42"/>
+      <c r="I19" s="42" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B20" s="6" t="s">
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="28"/>
+      <c r="C20" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" s="43" t="s">
+        <v>30</v>
+      </c>
+      <c r="J20" s="43" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="15">
+      <c r="C21" s="15">
         <v>773.23158964843196</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="15">
         <v>579.51404266365546</v>
       </c>
-      <c r="F20" s="16">
+      <c r="E21" s="16">
         <v>802.1539406226625</v>
       </c>
-      <c r="G20" s="16">
+      <c r="F21" s="16">
         <v>594.69343964682707</v>
       </c>
-      <c r="I20" s="16">
+      <c r="G21" s="16">
         <v>0.69169744890833296</v>
       </c>
-      <c r="J20" s="16">
+      <c r="H21" s="16">
         <v>0.35140073683333439</v>
       </c>
-      <c r="L20" s="17">
+      <c r="I21" s="16">
         <v>806.59119025112079</v>
       </c>
-      <c r="M20" s="17">
+      <c r="J21" s="16">
         <v>596.96079810378353</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="15">
+      <c r="C22" s="15">
         <v>814.07290764397248</v>
       </c>
-      <c r="D21" s="15">
+      <c r="D22" s="15">
         <v>597.43059580313354</v>
       </c>
-      <c r="F21" s="16">
+      <c r="E22" s="16">
         <v>824.68686571642513</v>
       </c>
-      <c r="G21" s="16">
+      <c r="F22" s="16">
         <v>602.60452486864403</v>
       </c>
-      <c r="I21" s="16">
+      <c r="G22" s="16">
         <v>2.8539181361071662</v>
       </c>
-      <c r="J21" s="16">
+      <c r="H22" s="16">
         <v>1.5419710133094211</v>
       </c>
-      <c r="L21" s="17">
+      <c r="I22" s="16">
         <v>830.14706105893345</v>
       </c>
-      <c r="M21" s="17">
+      <c r="J22" s="16">
         <v>605.6584797060334</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="6" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="15">
+      <c r="C23" s="15">
         <v>840.8722818906374</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="15">
         <v>606.44487004446637</v>
       </c>
-      <c r="F22" s="16">
+      <c r="E23" s="16">
         <v>841.73231394333982</v>
       </c>
-      <c r="G22" s="16">
+      <c r="F23" s="16">
         <v>607.22829635620531</v>
       </c>
-      <c r="I22" s="16">
+      <c r="G23" s="16">
         <v>3.370520660430584</v>
       </c>
-      <c r="J22" s="16">
+      <c r="H23" s="16">
         <v>1.878959421050163</v>
       </c>
-      <c r="L22" s="17">
+      <c r="I23" s="16">
         <v>847.65449205156483</v>
       </c>
-      <c r="M22" s="17">
+      <c r="J23" s="16">
         <v>610.73535089348809</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="15">
+      <c r="C24" s="15">
         <v>3125.5014936516009</v>
       </c>
-      <c r="D23" s="15">
+      <c r="D24" s="15">
         <v>2397.6301134252271</v>
       </c>
-      <c r="F23" s="16">
+      <c r="E24" s="16">
         <v>3241.4503717400412</v>
       </c>
-      <c r="G23" s="16">
+      <c r="F24" s="16">
         <v>2500.820925594765</v>
       </c>
-      <c r="I23" s="16">
+      <c r="G24" s="16">
         <v>5.4635982710628248</v>
       </c>
-      <c r="J23" s="16">
+      <c r="H24" s="16">
         <v>3.895419806220104</v>
       </c>
-      <c r="L23" s="17">
+      <c r="I24" s="16">
         <v>3247.918621996364</v>
       </c>
-      <c r="M23" s="17">
+      <c r="J24" s="16">
         <v>2505.264690091255</v>
       </c>
     </row>
-    <row r="24" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="8" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C25" s="15">
         <v>3125.5014936516009</v>
       </c>
-      <c r="D24" s="18">
+      <c r="D25" s="15">
         <v>2397.6301134252271</v>
       </c>
-      <c r="F24" s="19">
+      <c r="E25" s="16">
         <v>3220.6213525852731</v>
       </c>
-      <c r="G24" s="19">
+      <c r="F25" s="16">
         <v>2480.9070854485208</v>
       </c>
-      <c r="I24" s="19">
+      <c r="G25" s="16">
         <v>2.963760202334127</v>
       </c>
-      <c r="J24" s="19">
+      <c r="H25" s="16">
         <v>2.0017586785793582</v>
       </c>
-      <c r="L24" s="20">
+      <c r="I25" s="16">
         <v>3224.5548434584171</v>
       </c>
-      <c r="M24" s="20">
+      <c r="J25" s="16">
         <v>2483.3130658815871</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="A8:E8"/>
     <mergeCell ref="G8:K8"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G19:H19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
